--- a/inputs/2025-06-26-Seibersdorf-PGIS2_dose.input.xlsx
+++ b/inputs/2025-06-26-Seibersdorf-PGIS2_dose.input.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\backpacks\Desktop\KrimMapRPy 4.0\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\backpacks\GitHub\KrigMapRPy\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -108,16 +108,16 @@
     <t>subsetting</t>
   </si>
   <si>
-    <t>trimmBeginningUpTo</t>
-  </si>
-  <si>
-    <t>trimmEndAfter</t>
-  </si>
-  <si>
     <t>variogramMax</t>
   </si>
   <si>
     <t>2025-06-26-Seibersdorf</t>
+  </si>
+  <si>
+    <t>trimBeginningUpTo</t>
+  </si>
+  <si>
+    <t>trimEndAfter</t>
   </si>
 </sst>
 </file>
@@ -988,7 +988,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1051,7 +1051,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>13</v>
@@ -1138,7 +1138,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B16" s="1">
         <v>137</v>
@@ -1146,7 +1146,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B17" s="1">
         <v>820</v>
@@ -1154,7 +1154,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B18" s="1">
         <v>40</v>
@@ -1167,26 +1167,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="d476941f-028b-41e3-b03c-0b5d733f80fc" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e28c6720-69a0-4511-b744-f82cee9c107a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003F686C395C26DB46840338BECE971495" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="43b1bd120df228c0dbb137a4c9e26334">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e28c6720-69a0-4511-b744-f82cee9c107a" xmlns:ns3="d476941f-028b-41e3-b03c-0b5d733f80fc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="51fce89202948bdd76463f6a0094b1c8" ns2:_="" ns3:_="">
     <xsd:import namespace="e28c6720-69a0-4511-b744-f82cee9c107a"/>
@@ -1387,26 +1367,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{688D63A4-9EBC-4DAD-BC15-2B6E88D50735}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d476941f-028b-41e3-b03c-0b5d733f80fc"/>
-    <ds:schemaRef ds:uri="e28c6720-69a0-4511-b744-f82cee9c107a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A5264B3-CC26-4E3E-83DA-92B939FE863B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="d476941f-028b-41e3-b03c-0b5d733f80fc" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e28c6720-69a0-4511-b744-f82cee9c107a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5403487F-B679-4C34-9CD7-E5EADA323CE0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1425,6 +1406,25 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A5264B3-CC26-4E3E-83DA-92B939FE863B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{688D63A4-9EBC-4DAD-BC15-2B6E88D50735}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d476941f-028b-41e3-b03c-0b5d733f80fc"/>
+    <ds:schemaRef ds:uri="e28c6720-69a0-4511-b744-f82cee9c107a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{a2f21493-a4d1-4b7f-ad07-819c824f5c4a}" enabled="0" method="" siteId="{a2f21493-a4d1-4b7f-ad07-819c824f5c4a}" removed="1"/>

--- a/inputs/2025-06-26-Seibersdorf-PGIS2_dose.input.xlsx
+++ b/inputs/2025-06-26-Seibersdorf-PGIS2_dose.input.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>name</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>trimEndAfter</t>
+  </si>
+  <si>
+    <t>variogramModel</t>
   </si>
 </sst>
 </file>
@@ -985,10 +988,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1158,6 +1161,14 @@
       </c>
       <c r="B18" s="1">
         <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
